--- a/src/test/resource/Bulk_Upload_Awards_Template_local_success.xlsx
+++ b/src/test/resource/Bulk_Upload_Awards_Template_local_success.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Humphreys\Documents\BEIS STS\transparency-db-publishing-subsidies-service\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEF31FF-B2DB-4633-8BAE-B4B3BD0D1155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CFC475-EE02-42C8-9E63-C8B6B48211DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5652" yWindow="2988" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upload Template" sheetId="1" r:id="rId1"/>
@@ -1234,6 +1234,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1251,12 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1561,10 +1561,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Z29" sqref="Z29"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1573,8 +1573,8 @@
     <col min="2" max="2" width="93" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.21875" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.77734375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="93" style="21" customWidth="1"/>
+    <col min="5" max="5" width="93" style="21" customWidth="1"/>
+    <col min="6" max="7" width="27.77734375" style="21" customWidth="1"/>
     <col min="8" max="8" width="37" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="72.44140625" style="21" bestFit="1" customWidth="1"/>
@@ -1605,14 +1605,14 @@
       <c r="D1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="36" t="s">
         <v>196</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>2</v>
@@ -1671,11 +1671,11 @@
       <c r="D2" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>185</v>
+      </c>
       <c r="F2" s="24"/>
-      <c r="G2" s="24" t="s">
-        <v>185</v>
-      </c>
+      <c r="G2" s="24"/>
       <c r="H2" s="22" t="s">
         <v>186</v>
       </c>
@@ -1728,13 +1728,13 @@
         <v>171</v>
       </c>
       <c r="E3" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>186</v>
@@ -14012,7 +14012,7 @@
           <x14:formula1>
             <xm:f>Dropdown!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:F837</xm:sqref>
+          <xm:sqref>D4:D837 F4:G837</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14828,13 +14828,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>113</v>
       </c>
       <c r="D2" s="28" t="s">
@@ -14842,37 +14842,37 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="28" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -14880,25 +14880,25 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="28" t="s">
         <v>117</v>
       </c>
@@ -14995,13 +14995,13 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="37" t="s">
         <v>137</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -15009,33 +15009,33 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="13" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="28" t="s">
         <v>117</v>
       </c>
@@ -15205,6 +15205,101 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Government_x0020_Body xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">BEIS</Government_x0020_Body>
+    <Date_x0020_Opened xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">2020-09-02T20:32:49+00:00</Date_x0020_Opened>
+    <LegacyData xmlns="aaacb922-5235-4a66-b188-303b9b46fbd7" xsi:nil="true"/>
+    <Descriptor xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
+      <Value>1</Value>
+    </TaxCatchAll>
+    <Invision xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Invision>
+    <m975189f4ba442ecbf67d4147307b177 xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">BEIS:Corporate Services:Digital Directorate:EU Exit, BRM and Assurance:EBRASS</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10b60d33-9f3b-419c-b326-e542b5592571</TermId>
+        </TermInfo>
+      </Terms>
+    </m975189f4ba442ecbf67d4147307b177>
+    <Security_x0020_Classification xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f">OFFICIAL</Security_x0020_Classification>
+    <ijmz xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae" xsi:nil="true"/>
+    <Retention_x0020_Label xmlns="a8f60570-4bd3-4f2b-950b-a996de8ab151" xsi:nil="true"/>
+    <Date_x0020_Closed xmlns="b413c3fd-5a3b-4239-b985-69032e371c04" xsi:nil="true"/>
+    <_dlc_DocId xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">E67A7M7FTMSZ-519618591-1208</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
+      <Url>https://beisgov.sharepoint.com/sites/SCPTDbase/_layouts/15/DocIdRedir.aspx?ID=E67A7M7FTMSZ-519618591-1208</Url>
+      <Description>E67A7M7FTMSZ-519618591-1208</Description>
+    </_dlc_DocIdUrl>
+    <Invisiondesigns xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095552673811A1544B9DC17E80367E3D9" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c219bbdc66874a295362540fe1f1ca4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ff8cd83-fc61-4182-af0d-9444b096b4cc" xmlns:ns3="0063f72e-ace3-48fb-9c1f-5b513408b31f" xmlns:ns4="b413c3fd-5a3b-4239-b985-69032e371c04" xmlns:ns5="a8f60570-4bd3-4f2b-950b-a996de8ab151" xmlns:ns6="aaacb922-5235-4a66-b188-303b9b46fbd7" xmlns:ns7="58eecf05-07e6-460c-a17a-1e6913e0d7ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea492d8f6df3c516113149b290687b47" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="4ff8cd83-fc61-4182-af0d-9444b096b4cc"/>
@@ -15572,102 +15667,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Government_x0020_Body xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">BEIS</Government_x0020_Body>
-    <Date_x0020_Opened xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">2020-09-02T20:32:49+00:00</Date_x0020_Opened>
-    <LegacyData xmlns="aaacb922-5235-4a66-b188-303b9b46fbd7" xsi:nil="true"/>
-    <Descriptor xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
-      <Value>1</Value>
-    </TaxCatchAll>
-    <Invision xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Invision>
-    <m975189f4ba442ecbf67d4147307b177 xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">BEIS:Corporate Services:Digital Directorate:EU Exit, BRM and Assurance:EBRASS</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10b60d33-9f3b-419c-b326-e542b5592571</TermId>
-        </TermInfo>
-      </Terms>
-    </m975189f4ba442ecbf67d4147307b177>
-    <Security_x0020_Classification xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f">OFFICIAL</Security_x0020_Classification>
-    <ijmz xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae" xsi:nil="true"/>
-    <Retention_x0020_Label xmlns="a8f60570-4bd3-4f2b-950b-a996de8ab151" xsi:nil="true"/>
-    <Date_x0020_Closed xmlns="b413c3fd-5a3b-4239-b985-69032e371c04" xsi:nil="true"/>
-    <_dlc_DocId xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">E67A7M7FTMSZ-519618591-1208</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
-      <Url>https://beisgov.sharepoint.com/sites/SCPTDbase/_layouts/15/DocIdRedir.aspx?ID=E67A7M7FTMSZ-519618591-1208</Url>
-      <Description>E67A7M7FTMSZ-519618591-1208</Description>
-    </_dlc_DocIdUrl>
-    <Invisiondesigns xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AF44877-6D21-41C2-9736-04B57D725022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6216EEDE-1870-4B1D-BF90-D3816A946FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBEDEBF5-0F8B-43D7-9E7F-E4CDAE2C086C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4ff8cd83-fc61-4182-af0d-9444b096b4cc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="58eecf05-07e6-460c-a17a-1e6913e0d7ae"/>
+    <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
+    <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB723818-A5CD-443A-A314-BAC9891A4BF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15690,43 +15727,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBEDEBF5-0F8B-43D7-9E7F-E4CDAE2C086C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4ff8cd83-fc61-4182-af0d-9444b096b4cc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="58eecf05-07e6-460c-a17a-1e6913e0d7ae"/>
-    <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
-    <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6216EEDE-1870-4B1D-BF90-D3816A946FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AF44877-6D21-41C2-9736-04B57D725022}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>

--- a/src/test/resource/Bulk_Upload_Awards_Template_local_success.xlsx
+++ b/src/test/resource/Bulk_Upload_Awards_Template_local_success.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill.batten\Documents\Projects\STS\transparency-db-publishing-subsidies-service\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF8547E-4973-4584-9205-4A55BDE35FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50EAFF-73BE-4D5B-974E-A54ACACB959B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upload Template" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="199">
   <si>
     <t>Subsidy Control (SC) Number</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Charity Number</t>
-  </si>
-  <si>
-    <t>Micro (fewer than 10 employees)</t>
   </si>
   <si>
     <t>Services</t>
@@ -300,9 +297,6 @@
     <t>East of England</t>
   </si>
   <si>
-    <t>Small (between 10 and 49 employees)</t>
-  </si>
-  <si>
     <t>Equity</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
   </si>
   <si>
     <t>VAT Number</t>
-  </si>
-  <si>
-    <t>Medium (between 50 and 249 employees)</t>
   </si>
   <si>
     <t>Guarantee</t>
@@ -812,9 +803,6 @@
     <t>The selected file must be smaller than 500kb</t>
   </si>
   <si>
-    <t>Large (250 or more employees)</t>
-  </si>
-  <si>
     <t>Rescue subsidy</t>
   </si>
   <si>
@@ -920,9 +908,6 @@
     <t>pvk</t>
   </si>
   <si>
-    <t>Small organisation</t>
-  </si>
-  <si>
     <t>BEIS</t>
   </si>
   <si>
@@ -948,6 +933,15 @@
   </si>
   <si>
     <t>Subsidies or Schemes of Particular Interest (SSoPI)</t>
+  </si>
+  <si>
+    <t>SME</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Not specified</t>
   </si>
 </sst>
 </file>
@@ -1567,10 +1561,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Z29" sqref="Z29"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1607,22 +1601,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>2</v>
@@ -1655,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="T1" s="19" t="s">
         <v>13</v>
@@ -1672,63 +1666,63 @@
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="21">
         <v>99</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T2" s="23">
         <v>36210</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V2" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -1736,62 +1730,62 @@
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="T3" s="23">
         <v>36210</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -14007,12 +14001,6 @@
           </x14:formula1>
           <xm:sqref>O4:O836</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>Dropdown!$C$2:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>R4:R838</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Dropdown!$E$2:$E$4</xm:f>
@@ -14037,6 +14025,12 @@
           </x14:formula1>
           <xm:sqref>D4:E837 G4:H837</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1651CF2E-B307-4251-AA77-0C500A441B31}">
+          <x14:formula1>
+            <xm:f>Dropdown!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>R1:R1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -14059,16 +14053,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -14077,16 +14071,16 @@
     </row>
     <row r="2" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -14098,10 +14092,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="2"/>
@@ -14111,14 +14105,14 @@
     </row>
     <row r="4" spans="1:8" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -14127,16 +14121,16 @@
     </row>
     <row r="5" spans="1:8" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -14145,14 +14139,14 @@
     </row>
     <row r="6" spans="1:8" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -14164,10 +14158,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="2"/>
@@ -14181,7 +14175,7 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="2"/>
@@ -14194,10 +14188,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="2"/>
@@ -14211,7 +14205,7 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="2"/>
@@ -14224,13 +14218,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -14239,13 +14233,13 @@
     </row>
     <row r="12" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="2"/>
@@ -14258,10 +14252,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="2"/>
@@ -14274,10 +14268,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="2"/>
@@ -14290,10 +14284,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="2"/>
@@ -14306,13 +14300,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -14321,13 +14315,13 @@
     </row>
     <row r="17" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="2"/>
@@ -14340,13 +14334,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>53</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -14355,16 +14349,16 @@
     </row>
     <row r="19" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>55</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -14376,10 +14370,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="2"/>
@@ -14389,13 +14383,13 @@
     </row>
     <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="D21" s="28"/>
     </row>
@@ -14413,14 +14407,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H22"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="78.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -14437,16 +14429,16 @@
         <v>15</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>61</v>
-      </c>
       <c r="E1" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>2</v>
@@ -14455,242 +14447,240 @@
         <v>16</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="H3" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="E4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>162</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="34"/>
       <c r="D6" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H13" s="11"/>
     </row>
@@ -14702,7 +14692,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -14714,7 +14704,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -14726,7 +14716,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -14738,7 +14728,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H17" s="11"/>
     </row>
@@ -14750,7 +14740,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="11"/>
     </row>
@@ -14762,7 +14752,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H19" s="11"/>
     </row>
@@ -14774,7 +14764,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H20" s="11"/>
     </row>
@@ -14786,7 +14776,7 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="11"/>
     </row>
@@ -14798,7 +14788,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H22" s="11"/>
     </row>
@@ -14838,30 +14828,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14869,7 +14859,7 @@
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14877,7 +14867,7 @@
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14885,7 +14875,7 @@
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="D5" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14893,13 +14883,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14907,7 +14897,7 @@
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14915,7 +14905,7 @@
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14923,7 +14913,7 @@
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="245.4" x14ac:dyDescent="0.3">
@@ -14931,11 +14921,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.4">
@@ -14943,13 +14933,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="16"/>
     </row>
@@ -14958,11 +14948,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14971,10 +14961,10 @@
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="123" x14ac:dyDescent="0.3">
@@ -14982,27 +14972,27 @@
         <v>6</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15010,11 +15000,11 @@
         <v>8</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15022,13 +15012,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15036,7 +15026,7 @@
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
       <c r="D18" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15044,7 +15034,7 @@
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
       <c r="D19" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15052,7 +15042,7 @@
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
       <c r="D20" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15060,7 +15050,7 @@
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15068,25 +15058,25 @@
         <v>10</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="236.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15094,13 +15084,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -15108,23 +15098,23 @@
         <v>13</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="288" customHeight="1" x14ac:dyDescent="0.3">
@@ -15132,28 +15122,28 @@
         <v>15</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="400.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
@@ -15161,7 +15151,7 @@
     </row>
     <row r="30" spans="1:4" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -15169,7 +15159,7 @@
     </row>
     <row r="31" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
@@ -15177,7 +15167,7 @@
     </row>
     <row r="32" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -15185,7 +15175,7 @@
     </row>
     <row r="33" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
@@ -15193,7 +15183,7 @@
     </row>
     <row r="34" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -15201,7 +15191,7 @@
     </row>
     <row r="35" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="18"/>
@@ -15228,6 +15218,101 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Government_x0020_Body xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">BEIS</Government_x0020_Body>
+    <Date_x0020_Opened xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">2020-09-02T20:32:49+00:00</Date_x0020_Opened>
+    <LegacyData xmlns="aaacb922-5235-4a66-b188-303b9b46fbd7" xsi:nil="true"/>
+    <Descriptor xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
+      <Value>1</Value>
+    </TaxCatchAll>
+    <Invision xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Invision>
+    <m975189f4ba442ecbf67d4147307b177 xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">BEIS:Corporate Services:Digital Directorate:EU Exit, BRM and Assurance:EBRASS</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10b60d33-9f3b-419c-b326-e542b5592571</TermId>
+        </TermInfo>
+      </Terms>
+    </m975189f4ba442ecbf67d4147307b177>
+    <Security_x0020_Classification xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f">OFFICIAL</Security_x0020_Classification>
+    <ijmz xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae" xsi:nil="true"/>
+    <Retention_x0020_Label xmlns="a8f60570-4bd3-4f2b-950b-a996de8ab151" xsi:nil="true"/>
+    <Date_x0020_Closed xmlns="b413c3fd-5a3b-4239-b985-69032e371c04" xsi:nil="true"/>
+    <_dlc_DocId xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">E67A7M7FTMSZ-519618591-1208</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
+      <Url>https://beisgov.sharepoint.com/sites/SCPTDbase/_layouts/15/DocIdRedir.aspx?ID=E67A7M7FTMSZ-519618591-1208</Url>
+      <Description>E67A7M7FTMSZ-519618591-1208</Description>
+    </_dlc_DocIdUrl>
+    <Invisiondesigns xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095552673811A1544B9DC17E80367E3D9" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c219bbdc66874a295362540fe1f1ca4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ff8cd83-fc61-4182-af0d-9444b096b4cc" xmlns:ns3="0063f72e-ace3-48fb-9c1f-5b513408b31f" xmlns:ns4="b413c3fd-5a3b-4239-b985-69032e371c04" xmlns:ns5="a8f60570-4bd3-4f2b-950b-a996de8ab151" xmlns:ns6="aaacb922-5235-4a66-b188-303b9b46fbd7" xmlns:ns7="58eecf05-07e6-460c-a17a-1e6913e0d7ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea492d8f6df3c516113149b290687b47" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="4ff8cd83-fc61-4182-af0d-9444b096b4cc"/>
@@ -15595,102 +15680,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Government_x0020_Body xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">BEIS</Government_x0020_Body>
-    <Date_x0020_Opened xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">2020-09-02T20:32:49+00:00</Date_x0020_Opened>
-    <LegacyData xmlns="aaacb922-5235-4a66-b188-303b9b46fbd7" xsi:nil="true"/>
-    <Descriptor xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
-      <Value>1</Value>
-    </TaxCatchAll>
-    <Invision xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Invision>
-    <m975189f4ba442ecbf67d4147307b177 xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">BEIS:Corporate Services:Digital Directorate:EU Exit, BRM and Assurance:EBRASS</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">10b60d33-9f3b-419c-b326-e542b5592571</TermId>
-        </TermInfo>
-      </Terms>
-    </m975189f4ba442ecbf67d4147307b177>
-    <Security_x0020_Classification xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f">OFFICIAL</Security_x0020_Classification>
-    <ijmz xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae" xsi:nil="true"/>
-    <Retention_x0020_Label xmlns="a8f60570-4bd3-4f2b-950b-a996de8ab151" xsi:nil="true"/>
-    <Date_x0020_Closed xmlns="b413c3fd-5a3b-4239-b985-69032e371c04" xsi:nil="true"/>
-    <_dlc_DocId xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">E67A7M7FTMSZ-519618591-1208</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="4ff8cd83-fc61-4182-af0d-9444b096b4cc">
-      <Url>https://beisgov.sharepoint.com/sites/SCPTDbase/_layouts/15/DocIdRedir.aspx?ID=E67A7M7FTMSZ-519618591-1208</Url>
-      <Description>E67A7M7FTMSZ-519618591-1208</Description>
-    </_dlc_DocIdUrl>
-    <Invisiondesigns xmlns="58eecf05-07e6-460c-a17a-1e6913e0d7ae" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AF44877-6D21-41C2-9736-04B57D725022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6216EEDE-1870-4B1D-BF90-D3816A946FAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBEDEBF5-0F8B-43D7-9E7F-E4CDAE2C086C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4ff8cd83-fc61-4182-af0d-9444b096b4cc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="58eecf05-07e6-460c-a17a-1e6913e0d7ae"/>
+    <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
+    <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB723818-A5CD-443A-A314-BAC9891A4BF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15713,43 +15740,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBEDEBF5-0F8B-43D7-9E7F-E4CDAE2C086C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4ff8cd83-fc61-4182-af0d-9444b096b4cc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="58eecf05-07e6-460c-a17a-1e6913e0d7ae"/>
-    <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
-    <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6216EEDE-1870-4B1D-BF90-D3816A946FAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AF44877-6D21-41C2-9736-04B57D725022}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>

--- a/src/test/resource/Bulk_Upload_Awards_Template_local_success.xlsx
+++ b/src/test/resource/Bulk_Upload_Awards_Template_local_success.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill.batten\Documents\Projects\STS\transparency-db-publishing-subsidies-service\src\test\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Humphreys\Documents\BEIS STS\transparency-db-publishing-subsidies-service\src\test\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF8547E-4973-4584-9205-4A55BDE35FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AB88E0-6276-458A-BCF0-E1A5D7E68E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upload Template" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="202">
   <si>
     <t>Subsidy Control (SC) Number</t>
   </si>
@@ -905,9 +905,6 @@
     <t>A description</t>
   </si>
   <si>
-    <t>SME support</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
@@ -948,6 +945,12 @@
   </si>
   <si>
     <t>Subsidies or Schemes of Particular Interest (SSoPI)</t>
+  </si>
+  <si>
+    <t>Research and development | Training | Culture or Heritage</t>
+  </si>
+  <si>
+    <t>Research and development | Training</t>
   </si>
 </sst>
 </file>
@@ -1567,10 +1570,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Z29" sqref="Z29"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1613,16 +1616,16 @@
         <v>168</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>169</v>
       </c>
       <c r="G1" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>2</v>
@@ -1688,16 +1691,16 @@
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="21">
@@ -1707,16 +1710,16 @@
         <v>63</v>
       </c>
       <c r="P2" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q2" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="R2" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="T2" s="23">
         <v>36210</v>
@@ -1728,7 +1731,7 @@
         <v>26</v>
       </c>
       <c r="W2" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -1739,47 +1742,47 @@
         <v>171</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>185</v>
       </c>
       <c r="G3" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="24" t="s">
-        <v>198</v>
-      </c>
       <c r="I3" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="20" t="s">
         <v>63</v>
       </c>
       <c r="P3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="R3" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="S3" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="T3" s="23">
         <v>36210</v>
@@ -1791,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="W3" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
